--- a/Prácticas/Set_test3.xlsx
+++ b/Prácticas/Set_test3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/ismael_rsesma_alumnos_upm_es/Documents/Escritorio/Git/Finite-Element-Method/Prácticas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismas\Desktop\Finite-Element-Method\Prácticas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_714DF86F0964AAFDF2DB8325E8012D16618B983A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4436F3A8-30F7-4815-97B5-7D781ECA1150}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00430AB-5870-4297-B91A-29802AE8AAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="82">
   <si>
     <t>Beam</t>
   </si>
@@ -260,6 +260,24 @@
   </si>
   <si>
     <t>E_RF mean</t>
+  </si>
+  <si>
+    <t>Sigma E_ISO</t>
+  </si>
+  <si>
+    <t>Sigma E_AF</t>
+  </si>
+  <si>
+    <t>Sigma E_RF</t>
+  </si>
+  <si>
+    <t>Sigma E_ISO rel</t>
+  </si>
+  <si>
+    <t>Sigma E_AF rel</t>
+  </si>
+  <si>
+    <t>Sigma E_RF rel</t>
   </si>
 </sst>
 </file>
@@ -311,14 +329,14 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,7 +355,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -633,13 +651,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W87"/>
+  <dimension ref="A1:W113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R85" sqref="R85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
@@ -649,7 +667,9 @@
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="9" width="28" customWidth="1"/>
     <col min="10" max="12" width="32" customWidth="1"/>
-    <col min="13" max="15" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" customWidth="1"/>
+    <col min="15" max="15" width="21.28515625" customWidth="1"/>
     <col min="16" max="19" width="12.7109375" customWidth="1"/>
     <col min="20" max="20" width="12.5703125" customWidth="1"/>
     <col min="21" max="21" width="12.7109375" customWidth="1"/>
@@ -674,31 +694,31 @@
       <c r="F1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -829,7 +849,7 @@
       <c r="U3">
         <v>2.9374059173626872</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1614,29 +1634,29 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2549,29 +2569,29 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -3029,29 +3049,29 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -3509,12 +3529,12 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B50">
@@ -3599,7 +3619,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B51">
@@ -3684,7 +3704,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B52">
@@ -3769,7 +3789,7 @@
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B53">
@@ -3854,7 +3874,7 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B54">
@@ -3939,7 +3959,7 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B55">
@@ -4024,7 +4044,7 @@
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B56">
@@ -4109,7 +4129,7 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B57">
@@ -4194,7 +4214,7 @@
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B58">
@@ -4279,7 +4299,7 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B59">
@@ -4364,7 +4384,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B60">
@@ -4449,7 +4469,7 @@
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B61">
@@ -4534,7 +4554,7 @@
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B62">
@@ -4619,7 +4639,7 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B63">
@@ -4704,7 +4724,7 @@
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B64">
@@ -4788,24 +4808,44 @@
         <v>0.40767850199786038</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="H66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B68">
-        <f>(M50+N50+P50)/3</f>
-        <v>3.3103238358222637</v>
+        <f>(M50+N50+O50)/3</f>
+        <v>3.2789479589532902</v>
       </c>
       <c r="C68">
         <f>(P50+Q50+R50)/3</f>
@@ -4815,14 +4855,44 @@
         <f>(S50+T50+U50)/3</f>
         <v>2.0801691738865613</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="G68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <f>_xlfn.STDEV.S(M2,N2,O2)</f>
+        <v>0.10137908371815352</v>
+      </c>
+      <c r="I68">
+        <f>_xlfn.STDEV.S(P2,Q2,R2)</f>
+        <v>0.11096492848177035</v>
+      </c>
+      <c r="J68">
+        <f>_xlfn.STDEV.S(S2,T2,U2)</f>
+        <v>0.36920172770656506</v>
+      </c>
+      <c r="L68" t="s">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <f>H68/B68*100</f>
+        <v>3.0918174056814207</v>
+      </c>
+      <c r="N68">
+        <f>I68/C68*100</f>
+        <v>3.3958482424665197</v>
+      </c>
+      <c r="O68">
+        <f>J68/D68*100</f>
+        <v>17.748639502082099</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B69">
-        <f t="shared" ref="B69:B82" si="15">(M51+N51+P51)/3</f>
-        <v>3.3639480876348244</v>
+        <f t="shared" ref="B69:B82" si="15">(M51+N51+O51)/3</f>
+        <v>3.2395681876783033</v>
       </c>
       <c r="C69">
         <f t="shared" ref="C69:C82" si="16">(P51+Q51+R51)/3</f>
@@ -4832,14 +4902,44 @@
         <f t="shared" ref="D69:D82" si="17">(S51+T51+U51)/3</f>
         <v>2.0776963769700552</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="G69" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <f t="shared" ref="H69:H112" si="18">_xlfn.STDEV.S(M3,N3,O3)</f>
+        <v>0.279631025217983</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ref="I69:I112" si="19">_xlfn.STDEV.S(P3,Q3,R3)</f>
+        <v>0.27075540746139815</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ref="J69:J112" si="20">_xlfn.STDEV.S(S3,T3,U3)</f>
+        <v>0.51890585381529575</v>
+      </c>
+      <c r="L69" t="s">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <f t="shared" ref="M69:M82" si="21">H69/B69*100</f>
+        <v>8.6317375964352134</v>
+      </c>
+      <c r="N69">
+        <f t="shared" ref="N69:N82" si="22">I69/C69*100</f>
+        <v>8.3858588169024433</v>
+      </c>
+      <c r="O69">
+        <f t="shared" ref="O69:O81" si="23">J69/D69*100</f>
+        <v>24.975056970163571</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B70">
         <f t="shared" si="15"/>
-        <v>3.7138240318550424</v>
+        <v>3.6417934400494105</v>
       </c>
       <c r="C70">
         <f t="shared" si="16"/>
@@ -4849,14 +4949,44 @@
         <f t="shared" si="17"/>
         <v>2.2975895002870597</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="G70" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="18"/>
+        <v>0.21119583101320213</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="19"/>
+        <v>0.2187831306503667</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="20"/>
+        <v>0.28934759157694556</v>
+      </c>
+      <c r="L70" t="s">
+        <v>3</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="21"/>
+        <v>5.7992259717601309</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="22"/>
+        <v>6.0281342412472645</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="23"/>
+        <v>12.593528632542696</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B71">
         <f t="shared" si="15"/>
-        <v>2.7719222073396117</v>
+        <v>2.6857238250217303</v>
       </c>
       <c r="C71">
         <f t="shared" si="16"/>
@@ -4866,14 +4996,44 @@
         <f t="shared" si="17"/>
         <v>1.7156450380925248</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="G71" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="18"/>
+        <v>0.28190275574682799</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="19"/>
+        <v>0.28972098498403542</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="20"/>
+        <v>0.31741395296399894</v>
+      </c>
+      <c r="L71" t="s">
+        <v>4</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="21"/>
+        <v>10.49634192169953</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="22"/>
+        <v>10.823952754618736</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="23"/>
+        <v>18.501143646642877</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B72">
         <f t="shared" si="15"/>
-        <v>2.3916300349166253</v>
+        <v>2.3471535872090619</v>
       </c>
       <c r="C72">
         <f t="shared" si="16"/>
@@ -4883,14 +5043,44 @@
         <f t="shared" si="17"/>
         <v>1.454195759682569</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="G72" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="18"/>
+        <v>4.1378750986626557E-2</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="19"/>
+        <v>4.8444600352188921E-2</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="20"/>
+        <v>0.26979184568965586</v>
+      </c>
+      <c r="L72" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="21"/>
+        <v>1.7629332486856533</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="22"/>
+        <v>2.0710396562022977</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="23"/>
+        <v>18.552649730497613</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B73">
         <f t="shared" si="15"/>
-        <v>3.1213589712111083</v>
+        <v>2.9959784699983536</v>
       </c>
       <c r="C73">
         <f t="shared" si="16"/>
@@ -4900,14 +5090,44 @@
         <f t="shared" si="17"/>
         <v>1.917593243462137</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="G73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="18"/>
+        <v>0.10180062784283403</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="19"/>
+        <v>0.11151404888185951</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="20"/>
+        <v>0.31471743403657632</v>
+      </c>
+      <c r="L73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="21"/>
+        <v>3.3979091926815475</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="22"/>
+        <v>3.7345985438068761</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="23"/>
+        <v>16.412105909820934</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B74">
         <f t="shared" si="15"/>
-        <v>3.1206275055655337</v>
+        <v>2.9484475810305035</v>
       </c>
       <c r="C74">
         <f t="shared" si="16"/>
@@ -4917,14 +5137,44 @@
         <f t="shared" si="17"/>
         <v>1.9172725946077023</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="G74" t="s">
+        <v>7</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="18"/>
+        <v>0.23566048077853682</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="19"/>
+        <v>0.24297241854809629</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="20"/>
+        <v>0.25643361785756669</v>
+      </c>
+      <c r="L74" t="s">
+        <v>7</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="21"/>
+        <v>7.9926969804283168</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="22"/>
+        <v>8.267869778932182</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="23"/>
+        <v>13.374916982529349</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B75">
         <f t="shared" si="15"/>
-        <v>2.1878437267508359</v>
+        <v>2.178771760235243</v>
       </c>
       <c r="C75">
         <f t="shared" si="16"/>
@@ -4934,14 +5184,44 @@
         <f t="shared" si="17"/>
         <v>1.3564673150740372</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="G75" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="18"/>
+        <v>9.8820451225660758E-2</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="19"/>
+        <v>9.9207290425044489E-2</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="20"/>
+        <v>0.34771320359757901</v>
+      </c>
+      <c r="L75" t="s">
+        <v>8</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="21"/>
+        <v>4.5356036382163802</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="22"/>
+        <v>4.5691318093854756</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="23"/>
+        <v>25.633732544348149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B76">
         <f t="shared" si="15"/>
-        <v>2.9112442262446314</v>
+        <v>2.7927868953178425</v>
       </c>
       <c r="C76">
         <f t="shared" si="16"/>
@@ -4951,14 +5231,44 @@
         <f t="shared" si="17"/>
         <v>1.7470838211466306</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="G76" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="18"/>
+        <v>0.23258506452903002</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="19"/>
+        <v>0.23919209956399523</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="20"/>
+        <v>0.28175747087112896</v>
+      </c>
+      <c r="L76" t="s">
+        <v>9</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="21"/>
+        <v>8.3280634451186764</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="22"/>
+        <v>8.5933345855103767</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="23"/>
+        <v>16.127301246840485</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B77">
         <f t="shared" si="15"/>
-        <v>2.6920942252383715</v>
+        <v>2.7194739986938843</v>
       </c>
       <c r="C77">
         <f t="shared" si="16"/>
@@ -4968,14 +5278,44 @@
         <f t="shared" si="17"/>
         <v>1.6548547591589851</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="18"/>
+        <v>6.6826028314987324E-2</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="19"/>
+        <v>7.2657822099648647E-2</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="20"/>
+        <v>0.18935099438713981</v>
+      </c>
+      <c r="L77" t="s">
+        <v>10</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="21"/>
+        <v>2.4573144787220875</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="22"/>
+        <v>2.6811702246680427</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="23"/>
+        <v>11.442151846810413</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B78">
         <f t="shared" si="15"/>
-        <v>3.0091229775515842</v>
+        <v>2.9159000239692525</v>
       </c>
       <c r="C78">
         <f t="shared" si="16"/>
@@ -4985,14 +5325,44 @@
         <f t="shared" si="17"/>
         <v>1.8638585726502199</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="G78" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="18"/>
+        <v>3.2196927347662545E-2</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="19"/>
+        <v>4.0457263263435031E-2</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="20"/>
+        <v>0.34086759404504557</v>
+      </c>
+      <c r="L78" t="s">
+        <v>11</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="21"/>
+        <v>1.1041848857298837</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="22"/>
+        <v>1.3921630345678595</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="23"/>
+        <v>18.288275679649129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B79">
         <f t="shared" si="15"/>
-        <v>2.7467073526972663</v>
+        <v>2.7916096381326345</v>
       </c>
       <c r="C79">
         <f t="shared" si="16"/>
@@ -5002,14 +5372,44 @@
         <f t="shared" si="17"/>
         <v>1.779663640837424</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="18"/>
+        <v>7.4508366522556949E-2</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="19"/>
+        <v>8.2010261538453241E-2</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="20"/>
+        <v>0.27633475326735579</v>
+      </c>
+      <c r="L79" t="s">
+        <v>12</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="21"/>
+        <v>2.669010935654927</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="22"/>
+        <v>2.9481152900768128</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="23"/>
+        <v>15.527358480916426</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B80">
         <f t="shared" si="15"/>
-        <v>2.2936535931997888</v>
+        <v>2.0587867325918277</v>
       </c>
       <c r="C80">
         <f t="shared" si="16"/>
@@ -5019,14 +5419,44 @@
         <f t="shared" si="17"/>
         <v>1.4824716103086664</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="18"/>
+        <v>1.4030522975191329</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="19"/>
+        <v>1.3967750219381938</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="20"/>
+        <v>0.51978250803598169</v>
+      </c>
+      <c r="L80" t="s">
+        <v>13</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="21"/>
+        <v>68.149472468807687</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="22"/>
+        <v>68.061533271714296</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="23"/>
+        <v>35.061886138093222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B81">
         <f t="shared" si="15"/>
-        <v>3.0022280624746251</v>
+        <v>2.9264358281463356</v>
       </c>
       <c r="C81">
         <f t="shared" si="16"/>
@@ -5036,14 +5466,44 @@
         <f t="shared" si="17"/>
         <v>1.887215548099185</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="18"/>
+        <v>0.1278794336732233</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="19"/>
+        <v>0.13584681323969078</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="20"/>
+        <v>0.17496954703682105</v>
+      </c>
+      <c r="L81" t="s">
+        <v>14</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="21"/>
+        <v>4.3698013960628943</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="22"/>
+        <v>4.6578577089603455</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="23"/>
+        <v>9.2713069905052148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B82">
         <f t="shared" si="15"/>
-        <v>1.1838848695098934</v>
+        <v>0.95214486326636694</v>
       </c>
       <c r="C82">
         <f t="shared" si="16"/>
@@ -5053,9 +5513,1000 @@
         <f t="shared" si="17"/>
         <v>0.55151078450634949</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
+      <c r="G82" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I82" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J82" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M82" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N82" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O82" t="e">
+        <f>J82/D82*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="18"/>
+        <v>2.4426538255342606E-2</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="19"/>
+        <v>1.5857608163006159E-2</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="20"/>
+        <v>0.29959994578753052</v>
+      </c>
+      <c r="L83" t="s">
+        <v>15</v>
+      </c>
+      <c r="M83">
+        <f>H83/B68*100</f>
+        <v>0.74495047073391407</v>
+      </c>
+      <c r="N83">
+        <f t="shared" ref="N83:O83" si="24">I83/C68*100</f>
+        <v>0.48528874435235497</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="24"/>
+        <v>14.402672126313737</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="18"/>
+        <v>0.78213387794351441</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="19"/>
+        <v>0.79222269583842919</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="20"/>
+        <v>0.19098031047897862</v>
+      </c>
+      <c r="L84" t="s">
+        <v>16</v>
+      </c>
+      <c r="M84">
+        <f t="shared" ref="M84:M96" si="25">H84/B69*100</f>
+        <v>24.143152192886706</v>
+      </c>
+      <c r="N84">
+        <f t="shared" ref="N84:N97" si="26">I84/C69*100</f>
+        <v>24.536786692964125</v>
+      </c>
+      <c r="O84">
+        <f t="shared" ref="O84:O97" si="27">J84/D69*100</f>
+        <v>9.1919258557638202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="18"/>
+        <v>0.16948807284649273</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="19"/>
+        <v>0.18171012928102098</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="20"/>
+        <v>0.38422853595857082</v>
+      </c>
+      <c r="L85" t="s">
+        <v>17</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="25"/>
+        <v>4.653972709780958</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="26"/>
+        <v>5.0066613867541978</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="27"/>
+        <v>16.723115069535506</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>18</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="18"/>
+        <v>9.1586579084252273E-2</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="19"/>
+        <v>9.9998987286311194E-2</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="20"/>
+        <v>0.27090688353811015</v>
+      </c>
+      <c r="L86" t="s">
+        <v>18</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="25"/>
+        <v>3.410126470599085</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="26"/>
+        <v>3.7359541420736053</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="27"/>
+        <v>15.79038073279469</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="5"/>
+      <c r="G87" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="18"/>
+        <v>6.0705379905633551E-2</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="19"/>
+        <v>6.7640669083494087E-2</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="20"/>
+        <v>0.23042682491570476</v>
+      </c>
+      <c r="L87" t="s">
+        <v>19</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="25"/>
+        <v>2.5863403330932728</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="26"/>
+        <v>2.8916846671363508</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="27"/>
+        <v>15.84565374925889</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="18"/>
+        <v>0.31872440608740843</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="19"/>
+        <v>0.3268794919199508</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="20"/>
+        <v>0.26940521942054718</v>
+      </c>
+      <c r="L88" t="s">
+        <v>20</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="25"/>
+        <v>10.638407761574587</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="26"/>
+        <v>10.94717380244963</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="27"/>
+        <v>14.049132700016557</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="18"/>
+        <v>0.36095239414172126</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="19"/>
+        <v>0.36938511974684335</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="20"/>
+        <v>0.26927745756100446</v>
+      </c>
+      <c r="L89" t="s">
+        <v>21</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="25"/>
+        <v>12.242116714707398</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="26"/>
+        <v>12.56944342321566</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="27"/>
+        <v>14.044818578137658</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="18"/>
+        <v>5.2338175186040579E-2</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="19"/>
+        <v>6.1430229774909959E-2</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="20"/>
+        <v>0.26895324379834096</v>
+      </c>
+      <c r="L90" t="s">
+        <v>22</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="25"/>
+        <v>2.4021871469634615</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="26"/>
+        <v>2.8292559520559446</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="27"/>
+        <v>19.827476918134312</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>23</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="18"/>
+        <v>0.1644677373220908</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="19"/>
+        <v>0.17227930299798017</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="20"/>
+        <v>0.27566010752954428</v>
+      </c>
+      <c r="L91" t="s">
+        <v>23</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="25"/>
+        <v>5.8890185140092113</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="26"/>
+        <v>6.189392105837813</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="27"/>
+        <v>15.77829891118936</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="18"/>
+        <v>0.12321174247605828</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="19"/>
+        <v>0.1305053441995877</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="20"/>
+        <v>0.24546997893601716</v>
+      </c>
+      <c r="L92" t="s">
+        <v>24</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="25"/>
+        <v>4.5307196367839779</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="26"/>
+        <v>4.8158206909656434</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="27"/>
+        <v>14.833324651449631</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>25</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="18"/>
+        <v>9.79145863793843E-2</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="19"/>
+        <v>9.514103097004345E-2</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="20"/>
+        <v>0.32739546271934106</v>
+      </c>
+      <c r="L93" t="s">
+        <v>25</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="25"/>
+        <v>3.3579541676500493</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="26"/>
+        <v>3.2738701460036568</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="27"/>
+        <v>17.565467011470595</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="18"/>
+        <v>0.33105599505545452</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="19"/>
+        <v>0.32090648511124331</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="20"/>
+        <v>0.35624282290599341</v>
+      </c>
+      <c r="L94" t="s">
+        <v>26</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="25"/>
+        <v>11.858964467428359</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="26"/>
+        <v>11.535987054469608</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="27"/>
+        <v>20.017424345330937</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="18"/>
+        <v>0.85742774947327016</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="19"/>
+        <v>0.8584667494064433</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="20"/>
+        <v>0.66678554443369753</v>
+      </c>
+      <c r="L95" t="s">
+        <v>27</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="25"/>
+        <v>41.647235038951585</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="26"/>
+        <v>41.831048171458846</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="27"/>
+        <v>44.977963813746534</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>28</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="18"/>
+        <v>0.13861577631866659</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="19"/>
+        <v>0.14687207614589212</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="20"/>
+        <v>0.18637742336632182</v>
+      </c>
+      <c r="L96" t="s">
+        <v>28</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="25"/>
+        <v>4.7366757536750317</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="26"/>
+        <v>5.0358872305682931</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="27"/>
+        <v>9.875788886650616</v>
+      </c>
+    </row>
+    <row r="97" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G97" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H97" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I97" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J97" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M97" t="e">
+        <f t="shared" ref="M84:M97" si="28">H97/B82*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N97" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O97" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>29</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="18"/>
+        <v>6.9476621801737234E-2</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="19"/>
+        <v>7.8114770553214641E-2</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="20"/>
+        <v>0.34855859281788765</v>
+      </c>
+      <c r="L98" t="s">
+        <v>29</v>
+      </c>
+      <c r="M98">
+        <f>H98/B68*100</f>
+        <v>2.1188693041629012</v>
+      </c>
+      <c r="N98">
+        <f t="shared" ref="N98:O98" si="29">I98/C68*100</f>
+        <v>2.3905382531507517</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="29"/>
+        <v>16.756261807622369</v>
+      </c>
+    </row>
+    <row r="99" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="18"/>
+        <v>4.2227331250786461E-2</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="19"/>
+        <v>4.646491388484577E-2</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="20"/>
+        <v>0.26832307093256663</v>
+      </c>
+      <c r="L99" t="s">
+        <v>30</v>
+      </c>
+      <c r="M99">
+        <f t="shared" ref="M99:M105" si="30">H99/B69*100</f>
+        <v>1.3034864156092809</v>
+      </c>
+      <c r="N99">
+        <f t="shared" ref="N99:N106" si="31">I99/C69*100</f>
+        <v>1.4391151461431075</v>
+      </c>
+      <c r="O99">
+        <f t="shared" ref="O99:O106" si="32">J99/D69*100</f>
+        <v>12.914450537949504</v>
+      </c>
+    </row>
+    <row r="100" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="18"/>
+        <v>0.19805264180824661</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="19"/>
+        <v>0.19353952972485169</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="20"/>
+        <v>0.4667420928366271</v>
+      </c>
+      <c r="L100" t="s">
+        <v>31</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="30"/>
+        <v>5.4383271612889583</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="31"/>
+        <v>5.3325970000572154</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="32"/>
+        <v>20.314424869120991</v>
+      </c>
+    </row>
+    <row r="101" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G101" t="s">
+        <v>32</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="18"/>
+        <v>0.11733456235432173</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="19"/>
+        <v>0.11748714428658379</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="20"/>
+        <v>0.21105389020760293</v>
+      </c>
+      <c r="L101" t="s">
+        <v>32</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="30"/>
+        <v>4.3688245701648931</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="31"/>
+        <v>4.3893102845247158</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="32"/>
+        <v>12.301722414693382</v>
+      </c>
+    </row>
+    <row r="102" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G102" t="s">
+        <v>33</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="18"/>
+        <v>0.10729067195895363</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="19"/>
+        <v>0.11192365213342749</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="20"/>
+        <v>0.16652807085692309</v>
+      </c>
+      <c r="L102" t="s">
+        <v>33</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="30"/>
+        <v>4.5710972023151717</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="31"/>
+        <v>4.7848123495737669</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="32"/>
+        <v>11.451558000229205</v>
+      </c>
+    </row>
+    <row r="103" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="18"/>
+        <v>0.15785144389939715</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="19"/>
+        <v>0.164906084603308</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="20"/>
+        <v>0.16712151786845617</v>
+      </c>
+      <c r="L103" t="s">
+        <v>34</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="30"/>
+        <v>5.2687776457713964</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="31"/>
+        <v>5.522694490959263</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="32"/>
+        <v>8.7151703542053074</v>
+      </c>
+    </row>
+    <row r="104" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>35</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="18"/>
+        <v>0.19554920034053658</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="19"/>
+        <v>0.20440598745945157</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="20"/>
+        <v>0.20927252989400058</v>
+      </c>
+      <c r="L104" t="s">
+        <v>35</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="30"/>
+        <v>6.6322766461457903</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="31"/>
+        <v>6.9555305760528334</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="32"/>
+        <v>10.915116112470189</v>
+      </c>
+    </row>
+    <row r="105" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G105" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H105" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I105" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J105" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M105" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N105" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O105" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="106" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
+        <v>36</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="18"/>
+        <v>0.14248922004622608</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="19"/>
+        <v>0.15158491743536748</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="20"/>
+        <v>0.2914040744662556</v>
+      </c>
+      <c r="L106" t="s">
+        <v>36</v>
+      </c>
+      <c r="M106">
+        <f>H106/B76*100</f>
+        <v>5.1020441368122942</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="31"/>
+        <v>5.4459152957540118</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="32"/>
+        <v>16.679455841735393</v>
+      </c>
+    </row>
+    <row r="107" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G107" t="s">
+        <v>37</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="18"/>
+        <v>0.46668823843297785</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="19"/>
+        <v>0.45834420135450415</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="20"/>
+        <v>0.46263421334132054</v>
+      </c>
+      <c r="L107" t="s">
+        <v>37</v>
+      </c>
+      <c r="M107">
+        <f t="shared" ref="M107:M112" si="33">H107/B77*100</f>
+        <v>17.160974462602695</v>
+      </c>
+      <c r="N107">
+        <f t="shared" ref="N107:N112" si="34">I107/C77*100</f>
+        <v>16.91351033940354</v>
+      </c>
+      <c r="O107">
+        <f t="shared" ref="O107:O112" si="35">J107/D77*100</f>
+        <v>27.956182304266765</v>
+      </c>
+    </row>
+    <row r="108" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G108" t="s">
+        <v>38</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="18"/>
+        <v>0.44354537618928741</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="19"/>
+        <v>0.45181231314862935</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="20"/>
+        <v>0.11645135619770765</v>
+      </c>
+      <c r="L108" t="s">
+        <v>38</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="33"/>
+        <v>15.211268306295144</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="34"/>
+        <v>15.547181153417316</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="35"/>
+        <v>6.2478643984304822</v>
+      </c>
+    </row>
+    <row r="109" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G109" t="s">
+        <v>39</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="18"/>
+        <v>7.059859719926577E-2</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="19"/>
+        <v>7.6281486741276758E-2</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="20"/>
+        <v>0.2327708930197232</v>
+      </c>
+      <c r="L109" t="s">
+        <v>39</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="33"/>
+        <v>2.5289566361610154</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="34"/>
+        <v>2.7421765666032427</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="35"/>
+        <v>13.079488037986348</v>
+      </c>
+    </row>
+    <row r="110" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
+        <v>40</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="18"/>
+        <v>0.22345779718952649</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="19"/>
+        <v>0.22748905621440438</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="20"/>
+        <v>0.28615065274684021</v>
+      </c>
+      <c r="L110" t="s">
+        <v>40</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="33"/>
+        <v>10.853858423121524</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="34"/>
+        <v>11.085002040631203</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="35"/>
+        <v>19.302268640899005</v>
+      </c>
+    </row>
+    <row r="111" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G111" t="s">
+        <v>41</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="18"/>
+        <v>0.14992385732190311</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="19"/>
+        <v>0.15365514180101225</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="20"/>
+        <v>0.36870405229552144</v>
+      </c>
+      <c r="L111" t="s">
+        <v>41</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="33"/>
+        <v>5.1230871314498616</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="34"/>
+        <v>5.2684620985288646</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="35"/>
+        <v>19.536933800004057</v>
+      </c>
+    </row>
+    <row r="112" spans="7:15" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>42</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="18"/>
+        <v>1.1600864484094517</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="19"/>
+        <v>1.1619995306117394</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="20"/>
+        <v>0.38521794973511003</v>
+      </c>
+      <c r="L112" t="s">
+        <v>42</v>
+      </c>
+      <c r="M112">
+        <f>H112/B82*100</f>
+        <v>121.83928025717996</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="34"/>
+        <v>122.37921238212608</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="35"/>
+        <v>69.847763735012705</v>
+      </c>
+    </row>
+    <row r="113" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L113" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
